--- a/Luaban/Config/Datas/__beans__.xlsx
+++ b/Luaban/Config/Datas/__beans__.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FreeTower\FreeTower\Luaban\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0B9DD80-0A9C-4ABE-BCA8-98C36EDC8AF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71789F08-0DEC-4363-B40E-F7F78689C995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -587,7 +587,8 @@
   <cols>
     <col min="2" max="3" width="20.6640625" customWidth="1"/>
     <col min="4" max="5" width="12.25" customWidth="1"/>
-    <col min="6" max="7" width="15" customWidth="1"/>
+    <col min="6" max="6" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
     <col min="8" max="9" width="13.5" customWidth="1"/>
     <col min="10" max="10" width="10.4140625" customWidth="1"/>
   </cols>
